--- a/code/EggGrowth.parameter.hierarchy.xlsx
+++ b/code/EggGrowth.parameter.hierarchy.xlsx
@@ -14,21 +14,12 @@
   <sheets>
     <sheet name="EggGrowth.parameter.hierarchy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
-  <si>
-    <t>Consider a row to hold a complete set of tokens and parameters for obtaining the desired simulation.</t>
-  </si>
-  <si>
-    <t>The bluish boxes apply to the specific row. If values are provided that are not necessary they are ignored.</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
   <si>
     <t>Pre-hatch egg</t>
   </si>
@@ -183,9 +174,6 @@
     <t>USGS</t>
   </si>
   <si>
-    <t>Values (text)</t>
-  </si>
-  <si>
     <t>Parameters (numeric)</t>
   </si>
   <si>
@@ -384,21 +372,6 @@
     <t>Carcasses or redds?</t>
   </si>
   <si>
-    <t>In the Token Name column, you must pick one of each unique token name</t>
-  </si>
-  <si>
-    <t>The Green boxes identify egg growth model components</t>
-  </si>
-  <si>
-    <t>The blue box next to the token name shows the (possible) value(s)</t>
-  </si>
-  <si>
-    <t>Follow each row across to determine which other tokens (in columns) are used with this.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   &lt; e.g. Use to only evaluate development timing. &gt;</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -436,6 +409,46 @@
   </si>
   <si>
     <t>akU</t>
+  </si>
+  <si>
+    <t>The blue box next to the token name shows the (possible) value(s). If values are provided that are not necessary they are ignored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; missing &gt; </t>
+  </si>
+  <si>
+    <t>In the Token Name column D, you must pick one of each unique token name.</t>
+  </si>
+  <si>
+    <t>Follow each row across to determine which other tokens (in columns) are used with the token you have selected.</t>
+  </si>
+  <si>
+    <t>Egg Growth Model controls use tokens and values to specify the details of the simulation.</t>
+  </si>
+  <si>
+    <t>Consider a row to hold a complete set of tokens and parameters for obtaining a component of the simulation.</t>
+  </si>
+  <si>
+    <t>The Green boxes identify egg growth model component groups.</t>
+  </si>
+  <si>
+    <t>https://cbr.washington.edu/sacramento/grow/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a list of all tokens and their default values, see: https://cbr.washington.edu/sac-bin/grow/emergecontrols.pl?raw=defaults
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Temp. year</t>
+  </si>
+  <si>
+    <t>tempyear</t>
+  </si>
+  <si>
+    <t>Values (text) or</t>
   </si>
 </sst>
 </file>
@@ -445,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +624,14 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -993,7 +1014,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1036,8 +1057,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1145,8 +1167,17 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1180,6 +1211,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1466,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1477,7 +1509,7 @@
     <col min="1" max="1" width="11.9453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.47265625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.26171875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.15625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5234375" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.9453125" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.83984375" style="2"/>
     <col min="7" max="7" width="10.62890625" style="2" customWidth="1"/>
@@ -1493,243 +1525,227 @@
     <col min="23" max="16384" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="37"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="2" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="X9" s="2" t="s">
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="I10" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="F11" s="6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="K13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="Q13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="P14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="6" t="s">
+      <c r="Q14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="T14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="U14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6"/>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1740,69 +1756,77 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="24"/>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
@@ -1812,148 +1836,143 @@
     <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0.26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="23" t="s">
+      <c r="E32" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="14">
+      <c r="F32" s="14">
         <v>958</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="6"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14">
-        <v>200</v>
-      </c>
+      <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6"/>
       <c r="D33" s="4"/>
       <c r="E33" s="26"/>
@@ -1965,26 +1984,28 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="G34" s="14">
+        <v>200</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="D35" s="4"/>
       <c r="E35" s="26"/>
@@ -1996,16 +2017,16 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -2015,7 +2036,7 @@
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6"/>
       <c r="D37" s="4"/>
       <c r="E37" s="26"/>
@@ -2027,83 +2048,82 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="14">
-        <v>417</v>
-      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="D39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>53</v>
-      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D40" s="4"/>
-      <c r="E40" s="26"/>
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="H40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="14">
+        <v>417</v>
+      </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="4"/>
-      <c r="E41" s="26"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="D41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="H41" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>70</v>
-      </c>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" s="4"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -2112,412 +2132,457 @@
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="16"/>
-      <c r="B43" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>71</v>
-      </c>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" s="4"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="17">
-        <v>-1.88E-5</v>
-      </c>
-      <c r="K43" s="14">
-        <v>0.34699999999999998</v>
-      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="16"/>
+    <row r="44" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="B44" s="6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="14">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L44" s="14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="E45" s="28"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="16"/>
+      <c r="B45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>67</v>
+      </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
+      <c r="J45" s="17">
+        <v>-1.88E-5</v>
+      </c>
+      <c r="K45" s="14">
+        <v>0.34699999999999998</v>
+      </c>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="E46" s="28"/>
-      <c r="F46" s="21" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="16"/>
+      <c r="B46" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="14">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="L46" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47" s="28"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E48" s="28"/>
+      <c r="F48" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="L48" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="18.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="39">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G46" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I46" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="K46" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="10" t="s">
+      <c r="D51" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="G47" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="N50" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E51" s="33"/>
       <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
       <c r="J51" s="31"/>
       <c r="K51" s="31"/>
       <c r="L51" s="31"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="M51" s="31"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="34" t="s">
-        <v>110</v>
-      </c>
+      <c r="H52" s="32"/>
       <c r="J52" s="31"/>
-      <c r="K52" s="32">
-        <v>2022</v>
-      </c>
+      <c r="K52" s="31"/>
       <c r="L52" s="31"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D53" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>111</v>
-      </c>
+      <c r="M52" s="31"/>
+      <c r="O52" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="E53" s="33"/>
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
       <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="32"/>
+      <c r="J53" s="31"/>
       <c r="K53" s="31"/>
       <c r="L53" s="31"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E54" s="33"/>
+      <c r="M53" s="31"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
       <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
+      <c r="J54" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>80</v>
+      <c r="L54" s="32">
+        <v>2022</v>
+      </c>
+      <c r="M54" s="31"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="31"/>
       <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
       <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
+      <c r="K55" s="32"/>
       <c r="L55" s="31"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="D56" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>84</v>
-      </c>
+      <c r="M55" s="31"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="E56" s="33"/>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
       <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
       <c r="J56" s="31"/>
       <c r="K56" s="31"/>
       <c r="L56" s="31"/>
-    </row>
-    <row r="57" spans="1:15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E57" s="33"/>
+      <c r="M56" s="31"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>77</v>
+      </c>
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
       <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
       <c r="J57" s="31"/>
       <c r="K57" s="31"/>
       <c r="L57" s="31"/>
-    </row>
-    <row r="58" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="30">
-        <v>2</v>
+      <c r="M57" s="31"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="D58" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="31"/>
       <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
       <c r="J58" s="31"/>
       <c r="K58" s="31"/>
       <c r="L58" s="31"/>
-    </row>
-    <row r="59" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="30">
-        <v>3000</v>
-      </c>
+      <c r="M58" s="31"/>
+    </row>
+    <row r="59" spans="1:16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E59" s="33"/>
       <c r="F59" s="31"/>
       <c r="G59" s="31"/>
       <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
+      <c r="I59" s="2"/>
       <c r="J59" s="31"/>
       <c r="K59" s="31"/>
       <c r="L59" s="31"/>
-    </row>
-    <row r="60" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="6"/>
+      <c r="M59" s="31"/>
+    </row>
+    <row r="60" spans="1:16" ht="31.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="B60" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="36">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="30">
+        <v>2</v>
       </c>
       <c r="F60" s="31"/>
       <c r="G60" s="31"/>
       <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
       <c r="J60" s="31"/>
       <c r="K60" s="31"/>
-      <c r="L60" s="32">
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+    </row>
+    <row r="61" spans="1:16" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="30">
+        <v>3000</v>
+      </c>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+    </row>
+    <row r="62" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="6"/>
+      <c r="B62" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="36">
+        <v>0</v>
+      </c>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="32">
         <v>-12</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="O62" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D64" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D65" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D66" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D67" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A44:A46"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/code/EggGrowth.parameter.hierarchy.xlsx
+++ b/code/EggGrowth.parameter.hierarchy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23682" windowHeight="15480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13632" windowHeight="9276"/>
   </bookViews>
   <sheets>
     <sheet name="EggGrowth.parameter.hierarchy" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="144">
   <si>
     <t>Pre-hatch egg</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>Values (text) or</t>
+  </si>
+  <si>
+    <t>usedirXXXX</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1059,7 +1062,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1077,9 +1080,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1104,77 +1104,95 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1498,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1518,7 +1536,7 @@
     <col min="10" max="10" width="14.41796875" style="2" customWidth="1"/>
     <col min="11" max="11" width="8.578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.9453125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.83984375" style="2"/>
+    <col min="13" max="13" width="11.41796875" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.68359375" style="2" customWidth="1"/>
     <col min="15" max="15" width="4.05078125" style="2" customWidth="1"/>
     <col min="16" max="22" width="5.47265625" style="2" customWidth="1"/>
@@ -1531,12 +1549,12 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="37"/>
+      <c r="B3" s="35"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
@@ -1590,7 +1608,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>142</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1666,8 +1684,8 @@
       <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1724,14 +1742,14 @@
         <v>24</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
@@ -1741,59 +1759,77 @@
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
@@ -1803,35 +1839,47 @@
       <c r="C21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
@@ -1844,7 +1892,7 @@
       <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="21" t="s">
         <v>37</v>
       </c>
       <c r="O24" s="3"/>
@@ -1859,7 +1907,7 @@
     <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
@@ -1872,10 +1920,10 @@
       <c r="D26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>0.26</v>
       </c>
     </row>
@@ -1890,10 +1938,10 @@
       <c r="D27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="2" t="s">
         <v>139</v>
       </c>
@@ -1909,16 +1957,16 @@
       <c r="H30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="L30" s="19" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1926,26 +1974,26 @@
       <c r="D31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="20" t="s">
         <v>64</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="8" t="s">
         <v>68</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1959,30 +2007,30 @@
       <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <v>958</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6"/>
@@ -1992,30 +2040,30 @@
       <c r="D34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14">
+      <c r="F34" s="12"/>
+      <c r="G34" s="13">
         <v>200</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
@@ -2025,28 +2073,28 @@
       <c r="D36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6"/>
@@ -2056,28 +2104,28 @@
       <c r="D38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6"/>
@@ -2087,20 +2135,20 @@
       <c r="D40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="15" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="13">
         <v>417</v>
       </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6"/>
@@ -2108,43 +2156,43 @@
       <c r="D41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="15" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" s="4"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" s="4"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="44" t="s">
         <v>62</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -2153,94 +2201,94 @@
       <c r="D44" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="16"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="17">
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="15">
         <v>-1.88E-5</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="13">
         <v>0.34699999999999998</v>
       </c>
-      <c r="L45" s="13"/>
+      <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="16"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="14">
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="13">
         <v>0.34699999999999998</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="13">
         <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E47" s="28"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E48" s="28"/>
-      <c r="F48" s="21" t="s">
+      <c r="E48" s="26"/>
+      <c r="F48" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H48" s="21" t="s">
+      <c r="H48" s="19" t="s">
         <v>98</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="J48" s="35" t="s">
+      <c r="J48" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="K48" s="35" t="s">
+      <c r="K48" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="L48" s="35" t="s">
+      <c r="L48" s="33" t="s">
         <v>110</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -2253,16 +2301,16 @@
         <v>14</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I49" s="38" t="s">
+      <c r="I49" s="36" t="s">
         <v>141</v>
       </c>
       <c r="J49" s="4" t="s">
@@ -2279,22 +2327,22 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="18.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I50" s="39">
+      <c r="I50" s="37">
         <v>2022</v>
       </c>
     </row>
@@ -2302,50 +2350,50 @@
       <c r="B51" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="32"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="30"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
       <c r="O52" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="E53" s="33"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
@@ -2360,179 +2408,187 @@
       <c r="D54" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="J54" s="34" t="s">
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="J54" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="K54" s="31"/>
-      <c r="L54" s="32">
+      <c r="K54" s="29"/>
+      <c r="L54" s="30">
         <v>2022</v>
       </c>
-      <c r="M54" s="31"/>
+      <c r="M54" s="29"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="D55" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="E56" s="33"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
+      <c r="D56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="6" t="s">
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D58" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E58" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="D58" s="18" t="s">
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="D59" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E59" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-    </row>
-    <row r="59" spans="1:16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E59" s="33"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-    </row>
-    <row r="60" spans="1:16" ht="31.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="6" t="s">
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+    </row>
+    <row r="60" spans="1:16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E60" s="31"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+    </row>
+    <row r="61" spans="1:16" ht="31.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B61" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D61" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E61" s="28">
         <v>2</v>
       </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-    </row>
-    <row r="61" spans="1:16" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6" t="s">
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+    </row>
+    <row r="62" spans="1:16" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E62" s="28">
         <v>3000</v>
       </c>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-    </row>
-    <row r="62" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="6"/>
-      <c r="B62" s="21" t="s">
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+    </row>
+    <row r="63" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="6"/>
+      <c r="B63" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E63" s="34">
         <v>0</v>
       </c>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="32">
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="30">
         <v>-12</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="O63" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="6" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B66" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2540,7 +2596,7 @@
         <v>118</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2548,7 +2604,7 @@
         <v>118</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2556,7 +2612,7 @@
         <v>118</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2564,7 +2620,7 @@
         <v>118</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2572,6 +2628,22 @@
         <v>118</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>124</v>
       </c>
     </row>
